--- a/data/trans_dic/P25A$medico-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Edad-trans_dic.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05771393106508024</v>
+        <v>0.05721137841086596</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03639925101048192</v>
+        <v>0.03793353836010363</v>
       </c>
     </row>
     <row r="6">
@@ -707,22 +707,22 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.3732606107512864</v>
+        <v>0.3269177443868991</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.32089418836998</v>
+        <v>0.2768816177516071</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4685194119066554</v>
+        <v>0.4677240409994454</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.204822331235949</v>
+        <v>0.2198097470037775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1865489198055917</v>
+        <v>0.1725054719999833</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3315811381948181</v>
+        <v>0.3316487747257373</v>
       </c>
     </row>
     <row r="7">
@@ -772,31 +772,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02655176161935344</v>
+        <v>0.02641583663100948</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01661598752908621</v>
+        <v>0.01293952806512181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02051358551313245</v>
+        <v>0.02080270924361924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02995942970255572</v>
+        <v>0.02923118824524731</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03505966606945823</v>
+        <v>0.02420188257428772</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04824544803939868</v>
+        <v>0.05318518819826049</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03104984397847203</v>
+        <v>0.0312388961317633</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01709089878722224</v>
+        <v>0.01827579646075171</v>
       </c>
     </row>
     <row r="9">
@@ -807,31 +807,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2457567608566271</v>
+        <v>0.252678299134555</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.135326728462143</v>
+        <v>0.1332624771798279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1709874896694043</v>
+        <v>0.1848462114079732</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1743301000155327</v>
+        <v>0.1639738740923162</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1476054966452834</v>
+        <v>0.1410290311617262</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1128905286509948</v>
+        <v>0.1121819946223846</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1604777824200335</v>
+        <v>0.1661347210971587</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1069596503234784</v>
+        <v>0.1105205093994037</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1041167692866515</v>
+        <v>0.1014513779564024</v>
       </c>
     </row>
     <row r="10">
@@ -881,31 +881,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02534764895515325</v>
+        <v>0.0257875811341115</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02794823780606203</v>
+        <v>0.0280324417345932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01188387785657265</v>
+        <v>0.01171467276410459</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007820088031175419</v>
+        <v>0.007709414319951267</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01062246296074142</v>
+        <v>0.01050787029200324</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02414611568762785</v>
+        <v>0.02141215452981437</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02033688131810627</v>
+        <v>0.02095432455061004</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01316335379280862</v>
+        <v>0.01317276461872916</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1496342229809818</v>
+        <v>0.1486384931936256</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1216371735880217</v>
+        <v>0.1233239120020372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1027790487727746</v>
+        <v>0.1133564535675544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.121151885547555</v>
+        <v>0.1202330291739337</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06540945802755242</v>
+        <v>0.06330282184181554</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09397920761876047</v>
+        <v>0.08977392176673951</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1053137205372425</v>
+        <v>0.1071719271367496</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07534058824051562</v>
+        <v>0.07561063709961449</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07975407443966935</v>
+        <v>0.08201380044830926</v>
       </c>
     </row>
     <row r="13">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09749006647930285</v>
+        <v>0.1041250999498065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0560762721811086</v>
+        <v>0.05403584675606641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1336836392037727</v>
+        <v>0.1362137431996837</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0458321141744094</v>
+        <v>0.04457498905391914</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04597702700013221</v>
+        <v>0.04639692227934521</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07866320886550894</v>
+        <v>0.07972530071951681</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05990282556245348</v>
+        <v>0.06200832114375848</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1078634256311866</v>
+        <v>0.1065675982019157</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2377796774320894</v>
+        <v>0.2416660525213782</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1453970711775217</v>
+        <v>0.1464796302936156</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2913245611943287</v>
+        <v>0.2979978337406058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.105571344146722</v>
+        <v>0.1065002313664911</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1793313361923163</v>
+        <v>0.1680590474047414</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1892941313794428</v>
+        <v>0.1653944821948201</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1811948394130971</v>
+        <v>0.1758137077243858</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1337016350238298</v>
+        <v>0.1327485027556541</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2134280490021253</v>
+        <v>0.2128309150950469</v>
       </c>
     </row>
     <row r="16">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2574373407202271</v>
+        <v>0.2608882824943631</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1418726000330339</v>
+        <v>0.1296760559365447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1488526050268387</v>
+        <v>0.1529847696005971</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0826137710933615</v>
+        <v>0.08235408581226349</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05992285158242124</v>
+        <v>0.05965825107339693</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2359440591144312</v>
+        <v>0.2380663369874585</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1416924674577156</v>
+        <v>0.1410849969382969</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1373020986287714</v>
+        <v>0.1332722526238431</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4229588665881825</v>
+        <v>0.4190936777466741</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2713540938702644</v>
+        <v>0.2758351708306286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2913799768646923</v>
+        <v>0.3027887954611334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2278898538543499</v>
+        <v>0.2818569660690923</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3183571992797415</v>
+        <v>0.3057664182216656</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2577160429091582</v>
+        <v>0.2632310251483815</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3808705263904649</v>
+        <v>0.3832051401616358</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2525163572751749</v>
+        <v>0.2638955938865131</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2621436037287084</v>
+        <v>0.2507178165997762</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3045116676081107</v>
+        <v>0.3012057613957882</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2450329532308293</v>
+        <v>0.2436936597150701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1664746543548691</v>
+        <v>0.1695225521328478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07069041873130509</v>
+        <v>0.07135091759755235</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1288110269769425</v>
+        <v>0.1048339567201354</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06742129340234267</v>
+        <v>0.07668009198423986</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2981800116131411</v>
+        <v>0.3054117376819414</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2550212817618342</v>
+        <v>0.2547027087382244</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1725414761810835</v>
+        <v>0.1714538503852877</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4826912271196188</v>
+        <v>0.4755008396681385</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.392668276717214</v>
+        <v>0.3963101567673761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.335111112839162</v>
+        <v>0.3231893170463754</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5850521033572297</v>
+        <v>0.5752109616264836</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7766711246903034</v>
+        <v>0.754859421335442</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3698041302525758</v>
+        <v>0.3742804819567117</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4547223914806244</v>
+        <v>0.4602277659816069</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4017548566080242</v>
+        <v>0.4039406926012586</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3133328629005387</v>
+        <v>0.3140384808498274</v>
       </c>
     </row>
     <row r="22">
@@ -1317,29 +1317,29 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3370734896157046</v>
+        <v>0.3445014168629665</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3096598523146805</v>
+        <v>0.2968114576735513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2093816905867426</v>
+        <v>0.2069687226223394</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1071652830397672</v>
+        <v>0.1145619901978495</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>0.3472149083211197</v>
+        <v>0.3332106373711254</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2915111139152953</v>
+        <v>0.2970225100170928</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2050515746948036</v>
+        <v>0.206978936646927</v>
       </c>
     </row>
     <row r="24">
@@ -1350,29 +1350,29 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5229829601075368</v>
+        <v>0.5251944870753192</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4810378925935284</v>
+        <v>0.4770449584397605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3606041338161521</v>
+        <v>0.3660211557222049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7361475896555525</v>
+        <v>0.7616512623363833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6302354493367907</v>
+        <v>0.6526160430138184</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.5175441490912416</v>
+        <v>0.5148993794769469</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4559791982956858</v>
+        <v>0.4641473061628256</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3634612682425539</v>
+        <v>0.3610698670422432</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05947625936361996</v>
+        <v>0.06274948302073621</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1346623145714921</v>
+        <v>0.1342973433690434</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1200474229790627</v>
+        <v>0.1256099926049707</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1807896401604084</v>
+        <v>0.1838751697613233</v>
       </c>
     </row>
     <row r="28">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>944</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7">
@@ -1745,22 +1745,22 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5764</v>
+        <v>5048</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6170</v>
+        <v>5324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7730</v>
+        <v>7717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5475</v>
+        <v>5876</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6718</v>
+        <v>6213</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8603</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="8">
@@ -1845,31 +1845,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1209</v>
+        <v>941</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2099</v>
+        <v>2048</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2905</v>
+        <v>2005</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5284</v>
+        <v>5825</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4831</v>
+        <v>4861</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1821</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="11">
@@ -1880,31 +1880,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9696</v>
+        <v>9969</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9843</v>
+        <v>9693</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8309</v>
+        <v>8983</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12215</v>
+        <v>11489</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12231</v>
+        <v>11686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6544</v>
+        <v>6503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17575</v>
+        <v>18195</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16643</v>
+        <v>17197</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11095</v>
+        <v>10811</v>
       </c>
     </row>
     <row r="12">
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2153</v>
+        <v>2191</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3140</v>
+        <v>3150</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3651</v>
+        <v>3238</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4809</v>
+        <v>4955</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2136</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="15">
@@ -2024,31 +2024,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12712</v>
+        <v>12627</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13667</v>
+        <v>13857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7639</v>
+        <v>8425</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8028</v>
+        <v>7967</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8117</v>
+        <v>7856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8264</v>
+        <v>7894</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15925</v>
+        <v>16206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17815</v>
+        <v>17878</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12941</v>
+        <v>13307</v>
       </c>
     </row>
     <row r="16">
@@ -2133,31 +2133,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12240</v>
+        <v>13073</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9529</v>
+        <v>9182</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14463</v>
+        <v>14737</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4198</v>
+        <v>4082</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4057</v>
+        <v>4094</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14497</v>
+        <v>14693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15666</v>
+        <v>16216</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21186</v>
+        <v>20932</v>
       </c>
     </row>
     <row r="19">
@@ -2168,31 +2168,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29853</v>
+        <v>30341</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24708</v>
+        <v>24892</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31518</v>
+        <v>32240</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6202</v>
+        <v>6257</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16424</v>
+        <v>15392</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16701</v>
+        <v>14593</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33394</v>
+        <v>32402</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34966</v>
+        <v>34716</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>41921</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="20">
@@ -2277,31 +2277,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32984</v>
+        <v>33426</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19896</v>
+        <v>18186</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19797</v>
+        <v>20346</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4276</v>
+        <v>4263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3411</v>
+        <v>3396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34345</v>
+        <v>34654</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>27205</v>
+        <v>27088</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>26076</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="23">
@@ -2312,31 +2312,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>54191</v>
+        <v>53696</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38055</v>
+        <v>38683</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38752</v>
+        <v>40270</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3974</v>
+        <v>4915</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16478</v>
+        <v>15826</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14669</v>
+        <v>14983</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55441</v>
+        <v>55780</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48483</v>
+        <v>50668</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>49785</v>
+        <v>47615</v>
       </c>
     </row>
     <row r="24">
@@ -2421,31 +2421,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>37120</v>
+        <v>36717</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>39828</v>
+        <v>39610</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20514</v>
+        <v>20889</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1368</v>
+        <v>1114</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1737</v>
+        <v>1976</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>40386</v>
+        <v>41366</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44160</v>
+        <v>44105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>25706</v>
+        <v>25544</v>
       </c>
     </row>
     <row r="27">
@@ -2456,31 +2456,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58840</v>
+        <v>57964</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>63824</v>
+        <v>64416</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41293</v>
+        <v>39824</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7923</v>
+        <v>7790</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8251</v>
+        <v>8019</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9527</v>
+        <v>9643</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>61589</v>
+        <v>62335</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>69569</v>
+        <v>69948</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>46682</v>
+        <v>46787</v>
       </c>
     </row>
     <row r="28">
@@ -2565,29 +2565,29 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>38190</v>
+        <v>39032</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>43810</v>
+        <v>41993</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22765</v>
+        <v>22503</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>990</v>
+        <v>1058</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
-        <v>42545</v>
+        <v>40829</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>43111</v>
+        <v>43926</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>22806</v>
+        <v>23021</v>
       </c>
     </row>
     <row r="31">
@@ -2598,29 +2598,29 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>59253</v>
+        <v>59504</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>68057</v>
+        <v>67492</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39207</v>
+        <v>39796</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6798</v>
+        <v>7033</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>4039</v>
+        <v>4182</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>63416</v>
+        <v>63092</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>67433</v>
+        <v>68641</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>40425</v>
+        <v>40159</v>
       </c>
     </row>
     <row r="32">
@@ -2705,31 +2705,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19973</v>
+        <v>21072</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>126758</v>
+        <v>126415</v>
       </c>
     </row>
     <row r="35">
@@ -2740,31 +2740,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>40313</v>
+        <v>42181</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>170178</v>
+        <v>173082</v>
       </c>
     </row>
     <row r="36">
